--- a/SchedulingData/dynamic13/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_10.xlsx
@@ -466,60 +466,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>75.3</v>
+        <v>77.3</v>
       </c>
       <c r="E2" t="n">
-        <v>27.14</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.2</v>
+        <v>80.78</v>
       </c>
       <c r="E3" t="n">
-        <v>26.48</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.78</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>26.672</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -527,89 +527,89 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="D5" t="n">
-        <v>57.1</v>
+        <v>153.3</v>
       </c>
       <c r="E5" t="n">
-        <v>25.98</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>143.82</v>
+        <v>52.94</v>
       </c>
       <c r="E6" t="n">
-        <v>22.928</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42.2</v>
+        <v>153.3</v>
       </c>
       <c r="D7" t="n">
-        <v>99.54000000000001</v>
+        <v>217.1</v>
       </c>
       <c r="E7" t="n">
-        <v>23.356</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.54000000000001</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>169.24</v>
+        <v>115.96</v>
       </c>
       <c r="E8" t="n">
-        <v>19.996</v>
+        <v>22.684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3</v>
+        <v>42.2</v>
       </c>
       <c r="E9" t="n">
-        <v>26.96</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="D10" t="n">
-        <v>86.66</v>
+        <v>112.68</v>
       </c>
       <c r="E10" t="n">
-        <v>26.464</v>
+        <v>23.012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52.3</v>
+        <v>42.2</v>
       </c>
       <c r="D11" t="n">
-        <v>98.95999999999999</v>
+        <v>106.38</v>
       </c>
       <c r="E11" t="n">
-        <v>23.424</v>
+        <v>23.152</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>98.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>134.66</v>
+        <v>51.56</v>
       </c>
       <c r="E12" t="n">
-        <v>20.984</v>
+        <v>27.504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64.78</v>
+        <v>217.1</v>
       </c>
       <c r="D13" t="n">
-        <v>127.58</v>
+        <v>271.94</v>
       </c>
       <c r="E13" t="n">
-        <v>22.512</v>
+        <v>15.716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>127.58</v>
+        <v>112.68</v>
       </c>
       <c r="D14" t="n">
-        <v>192.58</v>
+        <v>164.66</v>
       </c>
       <c r="E14" t="n">
-        <v>17.652</v>
+        <v>19.944</v>
       </c>
     </row>
     <row r="15">
@@ -713,41 +713,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>143.82</v>
+        <v>271.94</v>
       </c>
       <c r="D15" t="n">
-        <v>179.86</v>
+        <v>323.5</v>
       </c>
       <c r="E15" t="n">
-        <v>19.964</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>192.58</v>
+        <v>106.38</v>
       </c>
       <c r="D16" t="n">
-        <v>237.58</v>
+        <v>171.18</v>
       </c>
       <c r="E16" t="n">
-        <v>14.772</v>
+        <v>18.292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,89 +755,89 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>237.58</v>
+        <v>164.66</v>
       </c>
       <c r="D17" t="n">
-        <v>306.28</v>
+        <v>233.36</v>
       </c>
       <c r="E17" t="n">
-        <v>10.992</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.1</v>
+        <v>323.5</v>
       </c>
       <c r="D18" t="n">
-        <v>120.9</v>
+        <v>371.5</v>
       </c>
       <c r="E18" t="n">
-        <v>23.18</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>169.24</v>
+        <v>115.96</v>
       </c>
       <c r="D19" t="n">
-        <v>216.54</v>
+        <v>158.62</v>
       </c>
       <c r="E19" t="n">
-        <v>16.396</v>
+        <v>19.548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>86.66</v>
+        <v>158.62</v>
       </c>
       <c r="D20" t="n">
-        <v>158.36</v>
+        <v>231.84</v>
       </c>
       <c r="E20" t="n">
-        <v>22.384</v>
+        <v>15.856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>216.54</v>
+        <v>80.78</v>
       </c>
       <c r="D21" t="n">
-        <v>290.52</v>
+        <v>153.6</v>
       </c>
       <c r="E21" t="n">
-        <v>13.588</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="22">
@@ -846,188 +846,188 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>306.28</v>
+        <v>153.6</v>
       </c>
       <c r="D22" t="n">
-        <v>346.7</v>
+        <v>200.3</v>
       </c>
       <c r="E22" t="n">
-        <v>8.08</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>120.9</v>
+        <v>233.36</v>
       </c>
       <c r="D23" t="n">
-        <v>213.32</v>
+        <v>307.96</v>
       </c>
       <c r="E23" t="n">
-        <v>20.008</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>213.32</v>
+        <v>307.96</v>
       </c>
       <c r="D24" t="n">
-        <v>296.08</v>
+        <v>363.26</v>
       </c>
       <c r="E24" t="n">
-        <v>16.312</v>
+        <v>10.344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>290.52</v>
+        <v>200.3</v>
       </c>
       <c r="D25" t="n">
-        <v>343.64</v>
+        <v>248.3</v>
       </c>
       <c r="E25" t="n">
-        <v>9.896000000000001</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>158.36</v>
+        <v>248.3</v>
       </c>
       <c r="D26" t="n">
-        <v>214.86</v>
+        <v>313.42</v>
       </c>
       <c r="E26" t="n">
-        <v>18.844</v>
+        <v>15.268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>179.86</v>
+        <v>313.42</v>
       </c>
       <c r="D27" t="n">
-        <v>228.12</v>
+        <v>368.22</v>
       </c>
       <c r="E27" t="n">
-        <v>16.268</v>
+        <v>12.388</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>134.66</v>
+        <v>363.26</v>
       </c>
       <c r="D28" t="n">
-        <v>209.3</v>
+        <v>422.96</v>
       </c>
       <c r="E28" t="n">
-        <v>17.12</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>346.7</v>
+        <v>231.84</v>
       </c>
       <c r="D29" t="n">
-        <v>396.4</v>
+        <v>286.2</v>
       </c>
       <c r="E29" t="n">
-        <v>5.22</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>343.64</v>
+        <v>51.56</v>
       </c>
       <c r="D30" t="n">
-        <v>393.64</v>
+        <v>104.72</v>
       </c>
       <c r="E30" t="n">
-        <v>6.516</v>
+        <v>23.808</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>209.3</v>
+        <v>171.18</v>
       </c>
       <c r="D31" t="n">
-        <v>269.24</v>
+        <v>244.24</v>
       </c>
       <c r="E31" t="n">
-        <v>13.256</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="32">
@@ -1036,188 +1036,188 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>269.24</v>
+        <v>104.72</v>
       </c>
       <c r="D32" t="n">
-        <v>303.8</v>
+        <v>152.7</v>
       </c>
       <c r="E32" t="n">
-        <v>10.44</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>228.12</v>
+        <v>244.24</v>
       </c>
       <c r="D33" t="n">
-        <v>266.42</v>
+        <v>295.8</v>
       </c>
       <c r="E33" t="n">
-        <v>14.068</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>214.86</v>
+        <v>295.8</v>
       </c>
       <c r="D34" t="n">
-        <v>285.62</v>
+        <v>335.28</v>
       </c>
       <c r="E34" t="n">
-        <v>14.868</v>
+        <v>8.252000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>303.8</v>
+        <v>286.2</v>
       </c>
       <c r="D35" t="n">
-        <v>349.86</v>
+        <v>353</v>
       </c>
       <c r="E35" t="n">
-        <v>6.964</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>396.4</v>
+        <v>152.7</v>
       </c>
       <c r="D36" t="n">
-        <v>469.06</v>
+        <v>238.26</v>
       </c>
       <c r="E36" t="n">
-        <v>2.084</v>
+        <v>16.664</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>266.42</v>
+        <v>335.28</v>
       </c>
       <c r="D37" t="n">
-        <v>314.3</v>
+        <v>380.18</v>
       </c>
       <c r="E37" t="n">
-        <v>10.9</v>
+        <v>5.392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>349.86</v>
+        <v>371.5</v>
       </c>
       <c r="D38" t="n">
-        <v>399.56</v>
+        <v>439.62</v>
       </c>
       <c r="E38" t="n">
-        <v>3.124</v>
+        <v>3.808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>314.3</v>
+        <v>353</v>
       </c>
       <c r="D39" t="n">
-        <v>371.18</v>
+        <v>417.6</v>
       </c>
       <c r="E39" t="n">
-        <v>7.832</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>285.62</v>
+        <v>238.26</v>
       </c>
       <c r="D40" t="n">
-        <v>335.9</v>
+        <v>304.66</v>
       </c>
       <c r="E40" t="n">
-        <v>11.46</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>371.18</v>
+        <v>304.66</v>
       </c>
       <c r="D41" t="n">
-        <v>432.44</v>
+        <v>355.5</v>
       </c>
       <c r="E41" t="n">
-        <v>5.336</v>
+        <v>10.16</v>
       </c>
     </row>
   </sheetData>
